--- a/results/I3_N5_M2_T45_C150_DepCentral_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>219.1027181008241</v>
+        <v>356.43831051045</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.002999782562255859</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.432718100827</v>
+        <v>26.43831051044998</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.041710045352779</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.041710045352779</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>124.9099999999971</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.76000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,9 +609,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -885,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.82218000304263</v>
+        <v>35.63767327242692</v>
       </c>
     </row>
     <row r="4">
@@ -901,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>36.55091596648896</v>
       </c>
     </row>
     <row r="6">
@@ -917,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>40.70719001468155</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.42195013960233</v>
+        <v>40.16296524632997</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1013,9 +1035,37 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>150.3899999999996</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>136.2050000000002</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1049999999996</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>150.1799999999996</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.9</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>153.01</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>173.065</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>162.32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>160.465</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>161.125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>84.67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>76.76500000000057</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>79.73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>88.715</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>150.3899999999996</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>136.2050000000002</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>149.1049999999996</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>150.1799999999996</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.9</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>153.01</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.065</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>162.32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>160.465</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.125</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3899999999996453</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1550,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1572,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1799999999989126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1583,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1594,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1605,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>23.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1616,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1627,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1638,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.125</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1916,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1927,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1938,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1949,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2004,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2015,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2023,10 +2073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2034,45 +2084,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
